--- a/assignment/excel assignment/pivot table report.xlsx
+++ b/assignment/excel assignment/pivot table report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sony Vaio\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sony Vaio\Documents\github\JeetPython_tops\assignment\excel assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,17 +19,16 @@
     <sheet name="Sheet8" sheetId="11" r:id="rId5"/>
     <sheet name="Sheet9" sheetId="12" r:id="rId6"/>
     <sheet name="Sheet10" sheetId="13" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="9" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_Sheet1A1F211" hidden="1">Sheet1!$A$1:$F$21</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Sheet1A1F21" hidden="1">Sheet1!$A$1:$F$21</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="195" r:id="rId10"/>
-    <pivotCache cacheId="174" r:id="rId11"/>
-    <pivotCache cacheId="213" r:id="rId12"/>
+    <pivotCache cacheId="214" r:id="rId9"/>
+    <pivotCache cacheId="215" r:id="rId10"/>
+    <pivotCache cacheId="216" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -61,7 +60,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Sheet1A1F211"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Sheet1A1F21"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -70,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="55">
   <si>
     <t>Gender</t>
   </si>
@@ -357,7 +356,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -691,7 +689,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1994,7 +1991,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="174" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="215" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B89" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
@@ -2367,7 +2364,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="195" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="214" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B85" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -2737,7 +2734,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable11" cacheId="195" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable11" cacheId="214" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -2906,7 +2903,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable12" cacheId="195" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable12" cacheId="214" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -3117,7 +3114,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable48" cacheId="213" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable48" cacheId="216" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -3241,7 +3238,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable49" cacheId="213" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable49" cacheId="216" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A89" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -3609,7 +3606,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable50" cacheId="213" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable50" cacheId="216" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -6449,445 +6446,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>60000</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>50000</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4">
-        <v>45000</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>47000</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6">
-        <v>45000</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7">
-        <v>40000</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <v>52000</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9">
-        <v>51000</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>54000</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>55000</v>
-      </c>
-      <c r="F11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12">
-        <v>52000</v>
-      </c>
-      <c r="F12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>55000</v>
-      </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14">
-        <v>90000</v>
-      </c>
-      <c r="F14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15">
-        <v>70000</v>
-      </c>
-      <c r="F15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16">
-        <v>90000</v>
-      </c>
-      <c r="F16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17">
-        <v>75000</v>
-      </c>
-      <c r="F17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18">
-        <v>99000</v>
-      </c>
-      <c r="F18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19">
-        <v>67000</v>
-      </c>
-      <c r="F19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20">
-        <v>24000</v>
-      </c>
-      <c r="F20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21">
-        <v>100000</v>
-      </c>
-      <c r="F21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F21"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
